--- a/Application Check List.xlsx
+++ b/Application Check List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F162EE-4312-4398-BFD8-967550022E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ECF81E-C5B5-48A2-98D6-4FCBEB383FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32295" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,11 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JHU(ECE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Duke(ECE) (NO application Fee)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JHU(ECE) ???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,13 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -754,7 +764,7 @@
     </row>
     <row r="13" spans="1:10" ht="57.75" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8"/>
@@ -783,7 +793,7 @@
     <row r="15" spans="1:10" ht="27.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -797,7 +807,7 @@
     <row r="16" spans="1:10" ht="27.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
